--- a/src/robot/ToeiNoukihikaku/結果.xlsx
+++ b/src/robot/ToeiNoukihikaku/結果.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -491,56 +491,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
